--- a/regions/3/mretsveloba/mretsveloba.xlsx
+++ b/regions/3/mretsveloba/mretsveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +113,11 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,8 +160,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -179,8 +185,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -482,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,7 +498,7 @@
     <col min="1" max="1" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -510,7 +517,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5">
         <v>2006</v>
@@ -557,8 +564,14 @@
       <c r="P2" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q2" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -607,8 +620,14 @@
       <c r="P3" s="10">
         <v>216.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="10">
+        <v>254.4</v>
+      </c>
+      <c r="R3" s="10">
+        <v>280.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -657,8 +676,14 @@
       <c r="P4" s="10">
         <v>214.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="10">
+        <v>250.9</v>
+      </c>
+      <c r="R4" s="10">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -707,8 +732,14 @@
       <c r="P5" s="9">
         <v>1803</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="9">
+        <v>2081</v>
+      </c>
+      <c r="R5" s="9">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -757,8 +788,14 @@
       <c r="P6" s="9">
         <v>1678</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="9">
+        <v>1854</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -807,8 +844,14 @@
       <c r="P7" s="10">
         <v>1043.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="10">
+        <v>976.7</v>
+      </c>
+      <c r="R7" s="10">
+        <v>1224.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
@@ -857,8 +900,14 @@
       <c r="P8" s="10">
         <v>161.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="10">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="R8" s="10">
+        <v>192.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -907,8 +956,14 @@
       <c r="P9" s="10">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="10">
+        <v>21.9</v>
+      </c>
+      <c r="R9" s="10">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
@@ -957,8 +1012,14 @@
       <c r="P10" s="10">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="10">
+        <v>87.1</v>
+      </c>
+      <c r="R10" s="10">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -1007,8 +1068,14 @@
       <c r="P11" s="10">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="10">
+        <v>13.3</v>
+      </c>
+      <c r="R11" s="10">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
@@ -1057,8 +1124,14 @@
       <c r="P12" s="10">
         <v>168.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="10">
+        <v>176.6</v>
+      </c>
+      <c r="R12" s="10">
+        <v>179.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1075,7 +1148,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>

--- a/regions/3/mretsveloba/mretsveloba.xlsx
+++ b/regions/3/mretsveloba/mretsveloba.xlsx
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +498,7 @@
     <col min="1" max="1" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -517,7 +517,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5">
         <v>2006</v>
@@ -570,8 +570,11 @@
       <c r="R2" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S2" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -626,8 +629,11 @@
       <c r="R3" s="10">
         <v>280.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S3" s="10">
+        <v>297.89999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -682,8 +688,11 @@
       <c r="R4" s="10">
         <v>278</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S4" s="10">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -738,8 +747,11 @@
       <c r="R5" s="9">
         <v>1862</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S5" s="9">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -794,8 +806,11 @@
       <c r="R6" s="9">
         <v>1748</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S6" s="9">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -850,8 +865,11 @@
       <c r="R7" s="10">
         <v>1224.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S7" s="10">
+        <v>1479.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
@@ -906,8 +924,11 @@
       <c r="R8" s="10">
         <v>192.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S8" s="10">
+        <v>168.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -962,8 +983,11 @@
       <c r="R9" s="10">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S9" s="10">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1018,8 +1042,11 @@
       <c r="R10" s="10">
         <v>85.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S10" s="10">
+        <v>125.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -1074,8 +1101,11 @@
       <c r="R11" s="10">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S11" s="10">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
@@ -1130,8 +1160,11 @@
       <c r="R12" s="10">
         <v>179.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="10">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1148,7 +1181,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
